--- a/biology/Écologie/BIODEPTH/BIODEPTH.xlsx
+++ b/biology/Écologie/BIODEPTH/BIODEPTH.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">BIODEPTH est l’acronyme de BIODiversity and Ecological Processes in Terrestrial Herbaceous ecosystems (biodiversité et processus écologiques dans les écosystèmes herbacés terrestres).
 C’est le nom d’un programme européen conclu en 1999, qui a associé 34 scientifiques d’une douzaine d’équipes européennes pour mesurer expérimentalement et in situ, et de manière standardisée l’importance fonctionnelle de la biodiversité pour la productivité des prairies européennes.
@@ -515,10 +527,12 @@
           <t>Résultats</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>En novembre 1999, dans la revue Science, l’étude a conclu que la perte de biodiversité des prairies européennes engendrait bien une perte très importante de productivité végétale, ainsi qu’une diminution de la quantité d’énergie disponible pour le réseau trophique (pyramide alimentaire), en menaçant aussi la santé des écosystèmes prairiaux et en dépendant. 
-BIODEPTH a montré que la production de biomasse végétale aérienne était une fonction logarithmique croissante de la richesse spécifique, grâce à la complémentarité fonctionnelle des groupes fonctionnels d'espèces qui s'installent et évoluent dans l'écosystème prairial[1].
+BIODEPTH a montré que la production de biomasse végétale aérienne était une fonction logarithmique croissante de la richesse spécifique, grâce à la complémentarité fonctionnelle des groupes fonctionnels d'espèces qui s'installent et évoluent dans l'écosystème prairial.
 La préservation et la restauration de la biodiversité sont donc utiles pour maintenir la productivité des prairies.  
 La diminution de moitié du nombre d’espèces végétales a entraîné une baisse de productivité végétale d’environ 80 g par m² en moyenne.
 La diversité n’est pas tout : les rendements sont encore meilleurs quand les plantes ont des caractéristiques fonctionnelles variées.
@@ -551,7 +565,9 @@
           <t>Budget</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Outre les moyens propres des laboratoires, la Communauté européenne a contribué à hauteur de 2 millions d’euros.
 </t>
@@ -582,9 +598,11 @@
           <t>Suites</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une des suites est la mise en place au royaume-Uni d'un programme de recherche thématique dit[2] dont le thème principal est : « La diversité biologique et ses fonctions dans les sols », avec 6 objectifs scientifiques,
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une des suites est la mise en place au royaume-Uni d'un programme de recherche thématique dit dont le thème principal est : « La diversité biologique et ses fonctions dans les sols », avec 6 objectifs scientifiques,
 quantifier la diversité taxonomique des principaux groupes du biote du sol dans un écosystème unique ;
 étendre la compréhension de la taxonomie du biote du sol, en particulier aux groupes mal caractérisés ;
 caractériser le rôle joué par tous les grands groupes du biote du sol dans le processus écologique important du cycle du carbone ;
